--- a/EA3 BugTrack.xlsx
+++ b/EA3 BugTrack.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JavaScript" sheetId="1" r:id="rId1"/>
     <sheet name="JSON" sheetId="2" r:id="rId2"/>
+    <sheet name="Java" sheetId="3" r:id="rId3"/>
+    <sheet name="Node.js" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Java!$A$1:$K$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JavaScript!$A$1:$K$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JSON!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Node.js!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="310">
   <si>
     <t>Bug#</t>
   </si>
@@ -686,6 +691,273 @@
   </si>
   <si>
     <t>search doc()//*:triple should include triple node, not only children nodes of triple node</t>
+  </si>
+  <si>
+    <t>skottam</t>
+  </si>
+  <si>
+    <t>[Task] Test Specification task for Java Client API</t>
+  </si>
+  <si>
+    <t>[Task] Data binding facade</t>
+  </si>
+  <si>
+    <t>[Task] JavaScript extensions</t>
+  </si>
+  <si>
+    <t>[Task] Changes for native JSON</t>
+  </si>
+  <si>
+    <t>[Task] Bitemporal document management</t>
+  </si>
+  <si>
+    <t>ageorge</t>
+  </si>
+  <si>
+    <t>[Task] Default connections to 8000</t>
+  </si>
+  <si>
+    <t>Fix JSONDocumentTest to not convert JSON to XML</t>
+  </si>
+  <si>
+    <t>[Task] Bulk Read: Unable to read just metadata</t>
+  </si>
+  <si>
+    <t>[Task] Generate range index definitions for classes using Pojo Facade</t>
+  </si>
+  <si>
+    <t>POJO query on Boolean field</t>
+  </si>
+  <si>
+    <t>[Task] Runtime database selection</t>
+  </si>
+  <si>
+    <t>[Task] Eval/invoke</t>
+  </si>
+  <si>
+    <t>[Task] Use "property" not "field" for pojo methods</t>
+  </si>
+  <si>
+    <t>[Task] Minor improvements to PojoFacade</t>
+  </si>
+  <si>
+    <t>Page method hasPreviousPage returns true even on first page.</t>
+  </si>
+  <si>
+    <t>Revisit DocumentManager.setResponseFormat naming</t>
+  </si>
+  <si>
+    <t>Page methods like isFirstPage(), getPageNumber() returns incorrect values.</t>
+  </si>
+  <si>
+    <t>AlertingTest VALIDATEUNEXPECTED</t>
+  </si>
+  <si>
+    <t>Bulk search is throwing ClassCastException</t>
+  </si>
+  <si>
+    <t>JacksonHandle doesn't close input stream when reading from server.</t>
+  </si>
+  <si>
+    <t>[Task] Adjust FailedRequest.java to parse non-XML errors</t>
+  </si>
+  <si>
+    <t>[Task] Create a PojoQueryDefinition marker interface</t>
+  </si>
+  <si>
+    <t>[Task] Deprecate KeyValueDefinition</t>
+  </si>
+  <si>
+    <t>Combined Query with JSON Search Options throws ParseError</t>
+  </si>
+  <si>
+    <t>[Task] remove TextReadHandle from JacksonBaseHandle</t>
+  </si>
+  <si>
+    <t>Reading an object of inner class throws MarkLogicIOException</t>
+  </si>
+  <si>
+    <t>PojoPage methods does not work as expected</t>
+  </si>
+  <si>
+    <t>Are we missing delete(ids, Tranasaction t) api in PojoRepository</t>
+  </si>
+  <si>
+    <t>[Task] close method on DocumentPage</t>
+  </si>
+  <si>
+    <t>[Task] Add a top-level CONTRIBUTING doc</t>
+  </si>
+  <si>
+    <t>mbhatnag</t>
+  </si>
+  <si>
+    <t>Java API Build FAILED: linux64 - HEAD Machine: rh6v-intel64-6.marklogic.com</t>
+  </si>
+  <si>
+    <t>Build failed in my laptop with Java 8</t>
+  </si>
+  <si>
+    <t>[Task] Separate PojoQueryBuilder and StructuredQueryBuilder</t>
+  </si>
+  <si>
+    <t>Look at runtime database selection</t>
+  </si>
+  <si>
+    <t>PojoQueryBuilder.geoPath, geoProperty method parameters are incorrect.</t>
+  </si>
+  <si>
+    <t>Modify patch code to be valid-index-path compatible</t>
+  </si>
+  <si>
+    <t>JSONDocumentTest is not compatible with new JSON patch</t>
+  </si>
+  <si>
+    <t>[Task] BitemporalTest needs to create/delete a new database</t>
+  </si>
+  <si>
+    <t>[Task] allow filtered pojo calls</t>
+  </si>
+  <si>
+    <t>Missing types yearMonthDuration and dayTimeDuration in java eval</t>
+  </si>
+  <si>
+    <t>Java eval does not take an external variable of node() kind</t>
+  </si>
+  <si>
+    <t>[Task] Add support section to README</t>
+  </si>
+  <si>
+    <t>Transactions (at least with bitemporal) is broken with 10/26 build</t>
+  </si>
+  <si>
+    <t>StructuredQueryDefinition.temporalCurrentQuery should be renamed as StructuredQueryDefinition.temporalLsqtQuery and it should use lsqt-query criteria</t>
+  </si>
+  <si>
+    <t>server error messages suddenly have charset in Content-Type header</t>
+  </si>
+  <si>
+    <t>Javascript extension doesn't work since it is inserted with source format as xquery</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>[Task] npm integration</t>
+  </si>
+  <si>
+    <t>ayuwono</t>
+  </si>
+  <si>
+    <t>[Task] bitemporal</t>
+  </si>
+  <si>
+    <t>[Task] semantics</t>
+  </si>
+  <si>
+    <t>[Task] tuple requests</t>
+  </si>
+  <si>
+    <t>[Task] extension CRUD and calls</t>
+  </si>
+  <si>
+    <t>[Task] query facet aggregates and projection</t>
+  </si>
+  <si>
+    <t>[Task] eval / invoke</t>
+  </si>
+  <si>
+    <t>[Task] refactoring</t>
+  </si>
+  <si>
+    <t>[Task] miscellaneous</t>
+  </si>
+  <si>
+    <t>[Task] Document support policy</t>
+  </si>
+  <si>
+    <t>query withOptions of similarDocs:true is returning 500 error code</t>
+  </si>
+  <si>
+    <t>removeAll response.collections should be an Array</t>
+  </si>
+  <si>
+    <t>query with absolute bucket is not working</t>
+  </si>
+  <si>
+    <t>Extract result is duplicated when passing array value on one of the paths, and selected value is include</t>
+  </si>
+  <si>
+    <t>500 Internal Server Error is thrown when omitting p.pathLanguage('jsonpath') and using json path expression on document patch</t>
+  </si>
+  <si>
+    <t>Unable to write default graph</t>
+  </si>
+  <si>
+    <t>Able to list the graph even with invalid content type</t>
+  </si>
+  <si>
+    <t>XDMP-AS on write if you omit contentType</t>
+  </si>
+  <si>
+    <t>internal error attempting to read metadata for nonexistent document</t>
+  </si>
+  <si>
+    <t>db.documents.patch doesn't support patching of XML documents</t>
+  </si>
+  <si>
+    <t>readable stream for part throws multipart boundary error</t>
+  </si>
+  <si>
+    <t>bad XPath in patch select causes ReferenceError</t>
+  </si>
+  <si>
+    <t>User-defined patch replacement functions unusable with patch builder</t>
+  </si>
+  <si>
+    <t>Error message when inserting against a temporal collection that does not exist should include the collection name passed</t>
+  </si>
+  <si>
+    <t>REST API throws 500 error if axis specified in search is invalid.</t>
+  </si>
+  <si>
+    <t>500 Internal Server Error is thrown when running eval/invoke on script with syntax error</t>
+  </si>
+  <si>
+    <t>Read unistalled transform doesn't give a proper error message</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Inserting 2 documents, one temporal and one non-temporal results in both documents being inserted as non-temporal</t>
+  </si>
+  <si>
+    <t>Distance for near query on qbe is not working</t>
+  </si>
+  <si>
+    <t>406 Error code is thrown when reading a graph</t>
+  </si>
+  <si>
+    <t>Sort order on documents query is not working</t>
+  </si>
+  <si>
+    <t>Unable to extract array value</t>
+  </si>
+  <si>
+    <t>Unable to extract with level-up path</t>
+  </si>
+  <si>
+    <t>Removing an invalid module will not return an error</t>
+  </si>
+  <si>
+    <t>Unhandled exception halts node server when 3 pathIndex facets are in the query</t>
+  </si>
+  <si>
+    <t>Insert fragment patch with cardinality 0 or more doesn't work when matching element = 0</t>
+  </si>
+  <si>
+    <t>Include</t>
   </si>
 </sst>
 </file>
@@ -734,8 +1006,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,13 +1046,41 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1087,7 +1415,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K4 K13 K16:K20 K48:K50 K56:K58 K60 K65:K68 K76:K78 K87:K95 K102:K103"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5198,15 +5526,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="48.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5235,21 +5567,1615 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2">
+        <v>29628</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K46" si="0">IF(J2,"* "&amp;A2&amp;": "&amp;I2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3">
+        <v>29991</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4">
         <v>26981</v>
       </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>26982</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26982: [Task] SQL feature works on JSON documents</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>26983</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26983: [Task] geospatial queries work on JSON documents</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>26984</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26984: [Task] support embedded triples in JSON documents</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>26985</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26985: [Task] reverse queries work with JSON documents</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9">
+        <v>26991</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>26992</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26992: [Task] RETURN JSOBJ: lexicon functions return JS objects</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11">
+        <v>27024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12">
+        <v>27670</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13">
+        <v>27712</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>27738</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27738: [Task] json serialization/deserilization of cts:similar-query</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15">
+        <v>28370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>28485</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28485: [Task] allow JSON documents to match wildcard namespaces in XPath</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>28492</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28492: [Task] xdmp:zip-get and xdmp:gunzip should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>28546</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28546: [Task] SPARQL update built-ins should be able to take/return options/permissions as JavaScript objects</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>28602</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28602: [Task] xdmp:merge, xdmp:document-filter, spell:suggest and spell:suggest-detailed should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="A20">
+        <v>28670</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>28684</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28684: [Task] xdmp:save and xdmp:quote should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>28707</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28707: [Task] cts:train, cts:classify, cts:cluster and cts:hash-terms(hidden) should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>28772</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28772: [Task] xdmp:tidy and xdmp:*-convert should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>28773</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28773: [Task] cts:distinctive-terms and cts:similar-query should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>28774</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28774: [Task] xdmp:rsa-generate and xdmp:x509-* should also take maps (JS Object) as options</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>28833</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28833: [Task] json serialization/deserialization of cts:triple-range-query</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>28974</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28974: [Task] JSON serialization for cts:current-query</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>29057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>* 29057: [Task] json serialization/deserialization of geospatial queries</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>29224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>* 29224: [Task] geospatial lexion functions work on JSON documents</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30">
+        <v>29606</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31">
+        <v>29787</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32">
+        <v>29827</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="A33">
+        <v>30065</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
+      <c r="A34">
+        <v>30159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
+      <c r="A35">
+        <v>30210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36">
+        <v>30260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
+      <c r="A37">
+        <v>30264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
+      <c r="A38">
+        <v>28357</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39">
+        <v>28818</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
+      <c r="A40">
+        <v>30263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>26994</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26994: [Task] XCC suport for native JSON</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>26995</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26995: [Task] direct access for native JSON documents (minor work in EA3, full access after 8.0-1)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>26996</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>* 26996: [Task] mlcp works with native JSON documents</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
+      <c r="A44">
+        <v>26997</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
+      <c r="A45">
+        <v>28445</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46">
+        <v>29354</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K46">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:K46">
+    <sortCondition ref="C2:C46"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1">
+      <c r="A2">
+        <v>26225</v>
+      </c>
       <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -5261,24 +7187,1583 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2,"* "&amp;A2&amp;": "&amp;I2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>26982</v>
+        <v>27051</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K47" si="0">IF(J3,"* "&amp;A3&amp;": "&amp;I3,"")</f>
+        <v>* 27051: [Task] Data binding facade</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>27054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27054: [Task] JavaScript extensions</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>27055</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27055: [Task] Changes for native JSON</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>27155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27155: [Task] Bitemporal document management</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>27156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27156: [Task] Default connections to 8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8">
+        <v>27623</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>27748</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>* 27748: [Task] Bulk Read: Unable to read just metadata</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>28410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28410: [Task] Generate range index definitions for classes using Pojo Facade</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11">
+        <v>28543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>28567</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28567: [Task] Runtime database selection</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>28570</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28570: [Task] Eval/invoke</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>28604</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>* 28604: [Task] Use "property" not "field" for pojo methods</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15">
+        <v>28637</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
+      <c r="A16">
+        <v>28644</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="A17">
+        <v>28668</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="A18">
+        <v>28669</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19">
+        <v>28717</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="A20">
+        <v>28766</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21">
+        <v>28904</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="A22">
+        <v>28953</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="A23">
+        <v>28999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>29000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>* 29000: [Task] Deprecate KeyValueDefinition</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="A25">
+        <v>29001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26">
+        <v>29002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27">
+        <v>29063</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="A28">
+        <v>29087</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="A29">
+        <v>29103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30">
+        <v>29198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="A31">
+        <v>29211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32">
+        <v>29406</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="A33">
+        <v>29462</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
+      <c r="A34">
+        <v>29489</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
+      <c r="A35">
+        <v>29695</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1">
+      <c r="A36">
+        <v>29745</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1">
+      <c r="A37">
+        <v>29760</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
+      <c r="A38">
+        <v>29929</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1">
+      <c r="A39">
+        <v>29932</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1">
+      <c r="A40">
+        <v>29988</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="A41">
+        <v>30025</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42">
+        <v>30089</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1">
+      <c r="A43">
+        <v>30091</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1">
+      <c r="A44">
+        <v>30108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1">
+      <c r="A45">
+        <v>30131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1">
+      <c r="A46">
+        <v>30185</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>268</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1">
+      <c r="A47">
+        <v>30254</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K47">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1">
+      <c r="A2">
+        <v>27164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>27165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -5290,27 +8775,30 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>26983</v>
+        <v>27167</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -5319,27 +8807,30 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>275</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>26984</v>
+        <v>27168</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -5348,21 +8839,24 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>26985</v>
+        <v>28557</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -5377,21 +8871,24 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>277</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>26991</v>
+        <v>28558</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -5406,12 +8903,15 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>278</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
-        <v>26992</v>
+        <v>28560</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5420,13 +8920,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -5435,24 +8935,30 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>280</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9">
-        <v>26994</v>
+        <v>28342</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -5461,24 +8967,27 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10">
-        <v>26995</v>
+        <v>28432</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -5487,50 +8996,59 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11">
-        <v>26996</v>
+        <v>28942</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12">
-        <v>26997</v>
+        <v>29451</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -5539,12 +9057,12 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13">
-        <v>27024</v>
+        <v>29917</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -5553,13 +9071,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -5568,21 +9086,21 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
-        <v>27670</v>
+        <v>27166</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -5597,27 +9115,30 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>274</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15">
-        <v>27712</v>
+        <v>28559</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -5626,27 +9147,30 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>279</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16">
-        <v>27738</v>
+        <v>29430</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -5655,12 +9179,12 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17">
-        <v>28357</v>
+        <v>29464</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -5669,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -5684,27 +9208,27 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18">
-        <v>28370</v>
+        <v>30001</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -5713,24 +9237,27 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19">
-        <v>28445</v>
+        <v>30068</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -5739,21 +9266,21 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20">
-        <v>28485</v>
+        <v>29128</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -5768,21 +9295,18 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21">
-        <v>28492</v>
+        <v>29220</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -5790,31 +9314,25 @@
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22">
-        <v>28546</v>
+        <v>30062</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -5826,27 +9344,24 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23">
-        <v>28602</v>
+        <v>28851</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -5855,21 +9370,18 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24">
-        <v>28670</v>
+        <v>28969</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -5884,21 +9396,18 @@
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25">
-        <v>28684</v>
+        <v>29061</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -5913,21 +9422,18 @@
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26">
-        <v>28707</v>
+        <v>29250</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -5942,21 +9448,18 @@
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27">
-        <v>28772</v>
+        <v>29611</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -5971,21 +9474,18 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28">
-        <v>28773</v>
+        <v>29920</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -6000,530 +9500,240 @@
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29">
-        <v>28774</v>
+        <v>30162</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30">
-        <v>28818</v>
+        <v>30266</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
         <v>201</v>
       </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31">
-        <v>28833</v>
+        <v>30297</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32">
-        <v>28974</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>30327</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33">
-        <v>29057</v>
+        <v>30335</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34">
-        <v>29224</v>
+        <v>30337</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35">
-        <v>29354</v>
+        <v>30338</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36">
-        <v>29606</v>
+        <v>30375</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" t="s">
         <v>201</v>
       </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37">
-        <v>29628</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
+        <v>30496</v>
+      </c>
+      <c r="E37" t="s">
         <v>201</v>
       </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38">
-        <v>29787</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>30503</v>
       </c>
       <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="E38" t="s">
-        <v>170</v>
-      </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>29827</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>29991</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>30065</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>30159</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>30210</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>30260</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>30263</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>30264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J38">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:K38">
+    <sortCondition ref="C2:C38"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
